--- a/data/pca/factorExposure/factorExposure_2017-07-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-07-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02380237776437068</v>
+        <v>-0.008725064529218642</v>
       </c>
       <c r="C2">
-        <v>0.000637640948721267</v>
+        <v>0.04504844117518485</v>
       </c>
       <c r="D2">
-        <v>0.02357908646790201</v>
+        <v>-0.02979371896806469</v>
       </c>
       <c r="E2">
-        <v>0.0132289564622908</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03256277305562135</v>
+      </c>
+      <c r="F2">
+        <v>-0.009788515773752813</v>
+      </c>
+      <c r="G2">
+        <v>0.07275264469465845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01668039100072541</v>
+        <v>-0.05275642466920898</v>
       </c>
       <c r="C3">
-        <v>-0.0533594793561195</v>
+        <v>0.07390946717592516</v>
       </c>
       <c r="D3">
-        <v>0.02965418013376483</v>
+        <v>-0.01547803051873556</v>
       </c>
       <c r="E3">
-        <v>0.01450881784091508</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09997380940475505</v>
+      </c>
+      <c r="F3">
+        <v>-0.02980317051646772</v>
+      </c>
+      <c r="G3">
+        <v>0.1488736910089177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02335987538697454</v>
+        <v>-0.05952141520358062</v>
       </c>
       <c r="C4">
-        <v>-0.01711879624079248</v>
+        <v>0.06375192167877142</v>
       </c>
       <c r="D4">
-        <v>0.06424616941310865</v>
+        <v>-0.02356488973179177</v>
       </c>
       <c r="E4">
-        <v>-0.01441063618004076</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02276878606086221</v>
+      </c>
+      <c r="F4">
+        <v>-0.007206931373150497</v>
+      </c>
+      <c r="G4">
+        <v>0.07505172614137207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01540189449551095</v>
+        <v>-0.03996457860992224</v>
       </c>
       <c r="C6">
-        <v>-0.01016045233178864</v>
+        <v>0.05202270018410932</v>
       </c>
       <c r="D6">
-        <v>0.08568086236670658</v>
+        <v>-0.01612985711194171</v>
       </c>
       <c r="E6">
-        <v>-0.009286999649435379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02354975460583731</v>
+      </c>
+      <c r="F6">
+        <v>-0.0118338729628677</v>
+      </c>
+      <c r="G6">
+        <v>0.05320109002118086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01117117471729029</v>
+        <v>-0.02059960193039186</v>
       </c>
       <c r="C7">
-        <v>-0.008448998603283141</v>
+        <v>0.04041847806978684</v>
       </c>
       <c r="D7">
-        <v>0.03974833355631595</v>
+        <v>-0.01293019404387991</v>
       </c>
       <c r="E7">
-        <v>-0.05954897465767357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.006921283657540144</v>
+      </c>
+      <c r="F7">
+        <v>0.005197907781822809</v>
+      </c>
+      <c r="G7">
+        <v>0.1141991042537843</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0004434152447987429</v>
+        <v>-0.002070432074445014</v>
       </c>
       <c r="C8">
-        <v>-0.0007309676459989191</v>
+        <v>0.02132079153753795</v>
       </c>
       <c r="D8">
-        <v>0.003368328075456192</v>
+        <v>-0.003646842913852015</v>
       </c>
       <c r="E8">
-        <v>-0.00719474490733851</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02229760057683198</v>
+      </c>
+      <c r="F8">
+        <v>-0.01653473512691449</v>
+      </c>
+      <c r="G8">
+        <v>0.04533776651762454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01624317286160407</v>
+        <v>-0.03505416983564052</v>
       </c>
       <c r="C9">
-        <v>-0.01894919817681989</v>
+        <v>0.04502578342993956</v>
       </c>
       <c r="D9">
-        <v>0.05011398691650999</v>
+        <v>-0.0160308678112861</v>
       </c>
       <c r="E9">
-        <v>-0.004039615855429915</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01512463478857096</v>
+      </c>
+      <c r="F9">
+        <v>-0.01229632029977164</v>
+      </c>
+      <c r="G9">
+        <v>0.07783214807413966</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02095206764900219</v>
+        <v>-0.09343278557470217</v>
       </c>
       <c r="C10">
-        <v>-0.1638304288218987</v>
+        <v>-0.1868884557682396</v>
       </c>
       <c r="D10">
-        <v>-0.1095085509045819</v>
+        <v>0.01675022688025421</v>
       </c>
       <c r="E10">
-        <v>0.008459888581299037</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01223922710198189</v>
+      </c>
+      <c r="F10">
+        <v>0.0207535702890885</v>
+      </c>
+      <c r="G10">
+        <v>0.05119623051033545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0007985290754885347</v>
+        <v>-0.03513957565691076</v>
       </c>
       <c r="C11">
-        <v>-0.006614154128265543</v>
+        <v>0.05329421358024006</v>
       </c>
       <c r="D11">
-        <v>0.04086236474864273</v>
+        <v>-0.002314802051132429</v>
       </c>
       <c r="E11">
-        <v>0.005101366679723054</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.008561200346953707</v>
+      </c>
+      <c r="F11">
+        <v>-0.0209187916534435</v>
+      </c>
+      <c r="G11">
+        <v>0.06093383060820697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006489954612255392</v>
+        <v>-0.03695896297964889</v>
       </c>
       <c r="C12">
-        <v>-0.01297333872224375</v>
+        <v>0.04816383441212881</v>
       </c>
       <c r="D12">
-        <v>0.04666692585907396</v>
+        <v>-0.006081077817388333</v>
       </c>
       <c r="E12">
-        <v>-0.005980212911284272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.0008497959093404134</v>
+      </c>
+      <c r="F12">
+        <v>-0.001028128170925441</v>
+      </c>
+      <c r="G12">
+        <v>0.05682196580374004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02296609196235121</v>
+        <v>-0.01689418242427743</v>
       </c>
       <c r="C13">
-        <v>-0.0150109029911526</v>
+        <v>0.03616067694893888</v>
       </c>
       <c r="D13">
-        <v>0.007951716186778039</v>
+        <v>-0.02580573401972803</v>
       </c>
       <c r="E13">
-        <v>0.01108004082717936</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02753705436140426</v>
+      </c>
+      <c r="F13">
+        <v>-0.006845651394787411</v>
+      </c>
+      <c r="G13">
+        <v>0.09023455837688728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.008186730504075737</v>
+        <v>-0.008789646705393143</v>
       </c>
       <c r="C14">
-        <v>-0.01389478842374569</v>
+        <v>0.02586334927245965</v>
       </c>
       <c r="D14">
-        <v>0.01170193275952008</v>
+        <v>-0.0089663952287729</v>
       </c>
       <c r="E14">
-        <v>-0.008512346418672618</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.002641634530037904</v>
+      </c>
+      <c r="F14">
+        <v>0.005120293798125288</v>
+      </c>
+      <c r="G14">
+        <v>0.07808916774863063</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001667107774549003</v>
+        <v>-0.03438678567529101</v>
       </c>
       <c r="C16">
-        <v>-0.01216022741918573</v>
+        <v>0.0474246207526049</v>
       </c>
       <c r="D16">
-        <v>0.04686587948251425</v>
+        <v>-0.001835169014959868</v>
       </c>
       <c r="E16">
-        <v>-0.005237002240490478</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.006679362365566333</v>
+      </c>
+      <c r="F16">
+        <v>-0.002326669097472975</v>
+      </c>
+      <c r="G16">
+        <v>0.0640884216695083</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01490580895691292</v>
+        <v>-0.02456178246897134</v>
       </c>
       <c r="C19">
-        <v>-0.02451644539402066</v>
+        <v>0.0489528813635766</v>
       </c>
       <c r="D19">
-        <v>0.01724987650480002</v>
+        <v>-0.0174455496839046</v>
       </c>
       <c r="E19">
-        <v>-0.00479501606846085</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06189095285088409</v>
+      </c>
+      <c r="F19">
+        <v>-0.01973859449131494</v>
+      </c>
+      <c r="G19">
+        <v>0.1044061419017022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01084522119848558</v>
+        <v>-0.01568263943444548</v>
       </c>
       <c r="C20">
-        <v>-0.007821621178980664</v>
+        <v>0.03402904295076567</v>
       </c>
       <c r="D20">
-        <v>0.01227748060845122</v>
+        <v>-0.01332005093581991</v>
       </c>
       <c r="E20">
-        <v>0.00996993532091207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02602360543339332</v>
+      </c>
+      <c r="F20">
+        <v>0.005083642586463862</v>
+      </c>
+      <c r="G20">
+        <v>0.07613889014700267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01509000352924498</v>
+        <v>-0.01495678755181508</v>
       </c>
       <c r="C21">
-        <v>-0.02091426042462121</v>
+        <v>0.03711303313258703</v>
       </c>
       <c r="D21">
-        <v>0.02145579809509568</v>
+        <v>-0.01752747003921759</v>
       </c>
       <c r="E21">
-        <v>-0.01073734942145377</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.0377403365373821</v>
+      </c>
+      <c r="F21">
+        <v>-0.0001194880895940615</v>
+      </c>
+      <c r="G21">
+        <v>0.1097852952544319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004561613471758434</v>
+        <v>-0.02827731682413433</v>
       </c>
       <c r="C24">
-        <v>-0.0007693449646957045</v>
+        <v>0.05036611487776562</v>
       </c>
       <c r="D24">
-        <v>0.04333547420974319</v>
+        <v>-0.007196779240728136</v>
       </c>
       <c r="E24">
-        <v>-0.0008418750901486811</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.00423082715398381</v>
+      </c>
+      <c r="F24">
+        <v>-0.01379027087872252</v>
+      </c>
+      <c r="G24">
+        <v>0.06530856612853336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01225699752766565</v>
+        <v>-0.04294263328840832</v>
       </c>
       <c r="C25">
-        <v>-0.01704275828342756</v>
+        <v>0.05713045472506249</v>
       </c>
       <c r="D25">
-        <v>0.04501888586381592</v>
+        <v>-0.01125547129177049</v>
       </c>
       <c r="E25">
-        <v>-0.0008344990380657053</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.002478737129617818</v>
+      </c>
+      <c r="F25">
+        <v>-0.009382621684211102</v>
+      </c>
+      <c r="G25">
+        <v>0.0698703665848876</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02327892703889575</v>
+        <v>-0.01528472860447811</v>
       </c>
       <c r="C26">
-        <v>-0.01054319208717349</v>
+        <v>0.008450360456167637</v>
       </c>
       <c r="D26">
-        <v>-0.004280867366987097</v>
+        <v>-0.02340298863758248</v>
       </c>
       <c r="E26">
-        <v>-0.008390076594562451</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.002615206894884889</v>
+      </c>
+      <c r="F26">
+        <v>0.007357573708173606</v>
+      </c>
+      <c r="G26">
+        <v>0.06406149472030262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04384085934593621</v>
+        <v>-0.1176665864040054</v>
       </c>
       <c r="C28">
-        <v>-0.2340306393603223</v>
+        <v>-0.237471110519037</v>
       </c>
       <c r="D28">
-        <v>-0.1623418901169187</v>
+        <v>0.007278979213238136</v>
       </c>
       <c r="E28">
-        <v>-0.01111386217419273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.0009038557214110351</v>
+      </c>
+      <c r="F28">
+        <v>0.01865845452479191</v>
+      </c>
+      <c r="G28">
+        <v>0.06823556611531979</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.0083316008205863</v>
+        <v>-0.0110683134113562</v>
       </c>
       <c r="C29">
-        <v>-0.01720531159615385</v>
+        <v>0.02061315077268381</v>
       </c>
       <c r="D29">
-        <v>0.01174736509349931</v>
+        <v>-0.007738067022070918</v>
       </c>
       <c r="E29">
-        <v>-0.004374072748739914</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.004721033933813502</v>
+      </c>
+      <c r="F29">
+        <v>0.0152972209024659</v>
+      </c>
+      <c r="G29">
+        <v>0.06976796066725968</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02411391029291507</v>
+        <v>-0.04583538311589002</v>
       </c>
       <c r="C30">
-        <v>-0.00388302754181293</v>
+        <v>0.06378467394199462</v>
       </c>
       <c r="D30">
-        <v>0.06320355050936576</v>
+        <v>-0.02828153338480099</v>
       </c>
       <c r="E30">
-        <v>0.04866936485064176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.04899553769072203</v>
+      </c>
+      <c r="F30">
+        <v>-0.04769727101166841</v>
+      </c>
+      <c r="G30">
+        <v>0.07525381106166841</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01011629918696574</v>
+        <v>-0.05353427987572019</v>
       </c>
       <c r="C31">
-        <v>-0.04280748717942234</v>
+        <v>0.03486678302348365</v>
       </c>
       <c r="D31">
-        <v>0.04207673480548083</v>
+        <v>-0.003125728037544865</v>
       </c>
       <c r="E31">
-        <v>-0.01089898222769937</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.00639130594311813</v>
+      </c>
+      <c r="F31">
+        <v>0.04009012617440828</v>
+      </c>
+      <c r="G31">
+        <v>0.06571204846387826</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.005691322274529867</v>
+        <v>-1.754041583141536e-05</v>
       </c>
       <c r="C32">
-        <v>-0.01968473817086176</v>
+        <v>0.02688835241275656</v>
       </c>
       <c r="D32">
-        <v>-0.009592460383150318</v>
+        <v>0.004033248575844579</v>
       </c>
       <c r="E32">
-        <v>-0.05028464920232861</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01502894667839132</v>
+      </c>
+      <c r="F32">
+        <v>-0.04161967071958209</v>
+      </c>
+      <c r="G32">
+        <v>0.09182576885240397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01417206209881646</v>
+        <v>-0.02826615573061264</v>
       </c>
       <c r="C33">
-        <v>-0.02577256795179518</v>
+        <v>0.04769203926035952</v>
       </c>
       <c r="D33">
-        <v>0.02481103703991832</v>
+        <v>-0.01500684289064851</v>
       </c>
       <c r="E33">
-        <v>0.02885813141754716</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03221759822025759</v>
+      </c>
+      <c r="F33">
+        <v>-0.01655602141716759</v>
+      </c>
+      <c r="G33">
+        <v>0.1025429409896674</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.003732307954287568</v>
+        <v>-0.04039871814665766</v>
       </c>
       <c r="C34">
-        <v>-0.01875484852341339</v>
+        <v>0.06175084829385176</v>
       </c>
       <c r="D34">
-        <v>0.05034678991940669</v>
+        <v>0.00442701075261746</v>
       </c>
       <c r="E34">
-        <v>-0.009333858265079206</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.001637506947066262</v>
+      </c>
+      <c r="F34">
+        <v>-0.02096902528535021</v>
+      </c>
+      <c r="G34">
+        <v>0.07189330713451809</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01333121719882389</v>
+        <v>-0.01535452444328909</v>
       </c>
       <c r="C36">
-        <v>-0.02128977078376063</v>
+        <v>0.00878306377087926</v>
       </c>
       <c r="D36">
-        <v>0.0002743721122873934</v>
+        <v>-0.0116373397549965</v>
       </c>
       <c r="E36">
-        <v>-0.003278547622164398</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.001220021982223162</v>
+      </c>
+      <c r="F36">
+        <v>0.008081011437676545</v>
+      </c>
+      <c r="G36">
+        <v>0.05824443425624629</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.002940793946017069</v>
+        <v>-0.03262917777348613</v>
       </c>
       <c r="C38">
-        <v>-0.03647697898551245</v>
+        <v>0.02822592376860167</v>
       </c>
       <c r="D38">
-        <v>0.03308787775515062</v>
+        <v>0.007764779578672622</v>
       </c>
       <c r="E38">
-        <v>-0.005383754906554991</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002218593073108762</v>
+      </c>
+      <c r="F38">
+        <v>0.01519174461079664</v>
+      </c>
+      <c r="G38">
+        <v>0.06562425351160363</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.004791498325977208</v>
+        <v>-0.03502408510067775</v>
       </c>
       <c r="C39">
-        <v>0.01861074867787218</v>
+        <v>0.08194673208799121</v>
       </c>
       <c r="D39">
-        <v>0.08905900451417616</v>
+        <v>-0.01206905607796745</v>
       </c>
       <c r="E39">
-        <v>0.01278041610490338</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02408477120381614</v>
+      </c>
+      <c r="F39">
+        <v>-0.02672785473094134</v>
+      </c>
+      <c r="G39">
+        <v>0.06743509120347846</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01320446125084104</v>
+        <v>-0.01868485122830495</v>
       </c>
       <c r="C40">
-        <v>-0.02306707507129502</v>
+        <v>0.0323659897678379</v>
       </c>
       <c r="D40">
-        <v>0.02709124685832087</v>
+        <v>-0.01391104117140453</v>
       </c>
       <c r="E40">
-        <v>-0.001368354315962744</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02262205662743657</v>
+      </c>
+      <c r="F40">
+        <v>-0.01215274775331464</v>
+      </c>
+      <c r="G40">
+        <v>0.07057956980686304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.006417790736669417</v>
+        <v>-0.01766011517582544</v>
       </c>
       <c r="C41">
-        <v>-0.02123195954059005</v>
+        <v>0.001114077502651223</v>
       </c>
       <c r="D41">
-        <v>-0.01216496958594512</v>
+        <v>-0.003693819657750573</v>
       </c>
       <c r="E41">
-        <v>-0.00344345364036687</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.001260232766204867</v>
+      </c>
+      <c r="F41">
+        <v>0.01278881290466749</v>
+      </c>
+      <c r="G41">
+        <v>0.04633349623069753</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09626592537485233</v>
+        <v>-0.01214809237025396</v>
       </c>
       <c r="C42">
-        <v>0.00359172012100647</v>
+        <v>0.03790817167135756</v>
       </c>
       <c r="D42">
-        <v>0.2614261399182596</v>
+        <v>-0.09403873308602975</v>
       </c>
       <c r="E42">
-        <v>0.423500833146684</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.02996812822109846</v>
+      </c>
+      <c r="F42">
+        <v>0.03822027288088782</v>
+      </c>
+      <c r="G42">
+        <v>-0.1750808246521349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.007776758430626278</v>
+        <v>-0.03314127229193575</v>
       </c>
       <c r="C43">
-        <v>-0.02578072747939719</v>
+        <v>0.01385241770805524</v>
       </c>
       <c r="D43">
-        <v>-0.0127488791239738</v>
+        <v>-0.005217764526279369</v>
       </c>
       <c r="E43">
-        <v>0.002740591445813744</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01190228924297982</v>
+      </c>
+      <c r="F43">
+        <v>0.005089858400401427</v>
+      </c>
+      <c r="G43">
+        <v>0.06974913839653614</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.00341791596265151</v>
+        <v>-0.0161319216319016</v>
       </c>
       <c r="C44">
-        <v>-0.007517960277269318</v>
+        <v>0.04907245168549499</v>
       </c>
       <c r="D44">
-        <v>0.02624908641216874</v>
+        <v>-0.006153375832360076</v>
       </c>
       <c r="E44">
-        <v>-0.00638878424150645</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01743056760966596</v>
+      </c>
+      <c r="F44">
+        <v>0.004978255151881773</v>
+      </c>
+      <c r="G44">
+        <v>0.08366282006924143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01125484974771107</v>
+        <v>-0.008499404517882883</v>
       </c>
       <c r="C46">
-        <v>-0.01524827916385958</v>
+        <v>0.01625639339187526</v>
       </c>
       <c r="D46">
-        <v>0.01035878632678529</v>
+        <v>-0.01156940430663851</v>
       </c>
       <c r="E46">
-        <v>0.001037874010785243</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.00382307556400754</v>
+      </c>
+      <c r="F46">
+        <v>0.01790307052354956</v>
+      </c>
+      <c r="G46">
+        <v>0.06893049014481263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.004995903073260008</v>
+        <v>-0.07928923678931611</v>
       </c>
       <c r="C47">
-        <v>-0.0546397003292084</v>
+        <v>0.06307475466668985</v>
       </c>
       <c r="D47">
-        <v>0.0633326133986007</v>
+        <v>0.00545865601053618</v>
       </c>
       <c r="E47">
-        <v>-0.005924044751770365</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01012848151604778</v>
+      </c>
+      <c r="F47">
+        <v>0.05575577355973824</v>
+      </c>
+      <c r="G47">
+        <v>0.06393565228796652</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.004246757293169571</v>
+        <v>-0.02101030208517232</v>
       </c>
       <c r="C48">
-        <v>-0.02640172493556947</v>
+        <v>0.0106346502227919</v>
       </c>
       <c r="D48">
-        <v>0.01242398240112677</v>
+        <v>-0.0009498134059358269</v>
       </c>
       <c r="E48">
-        <v>-0.002538939217957989</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002586713508349511</v>
+      </c>
+      <c r="F48">
+        <v>0.02142660950258305</v>
+      </c>
+      <c r="G48">
+        <v>0.06562500028673945</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.006783065554894671</v>
+        <v>-0.07799263758292022</v>
       </c>
       <c r="C50">
-        <v>-0.05534469826352706</v>
+        <v>0.06608150719452179</v>
       </c>
       <c r="D50">
-        <v>0.06451048155619842</v>
+        <v>0.003321027758529726</v>
       </c>
       <c r="E50">
-        <v>-0.0326283542562445</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01220197588709717</v>
+      </c>
+      <c r="F50">
+        <v>0.05977408026020233</v>
+      </c>
+      <c r="G50">
+        <v>0.08070961835242133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007553530263769727</v>
+        <v>-0.01543973085324671</v>
       </c>
       <c r="C51">
-        <v>-0.01625997228175734</v>
+        <v>0.0315420673703073</v>
       </c>
       <c r="D51">
-        <v>-0.00234278767018419</v>
+        <v>-0.00966210003662493</v>
       </c>
       <c r="E51">
-        <v>-0.004398238961517637</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01406243454483493</v>
+      </c>
+      <c r="F51">
+        <v>-0.02342580512523916</v>
+      </c>
+      <c r="G51">
+        <v>0.09946588479356729</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.008224417002775397</v>
+        <v>-0.08498152127427423</v>
       </c>
       <c r="C53">
-        <v>-0.06698785799364483</v>
+        <v>0.07918194676921224</v>
       </c>
       <c r="D53">
-        <v>0.1206686691329803</v>
+        <v>0.00471144782748959</v>
       </c>
       <c r="E53">
-        <v>-0.01221491501431773</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03105783699031371</v>
+      </c>
+      <c r="F53">
+        <v>0.061133292369403</v>
+      </c>
+      <c r="G53">
+        <v>0.05208806822848504</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.001990496812424151</v>
+        <v>-0.03188516748953384</v>
       </c>
       <c r="C54">
-        <v>-0.036596001286242</v>
+        <v>0.01439136632446128</v>
       </c>
       <c r="D54">
-        <v>0.0001849397952106778</v>
+        <v>0.002406850854778741</v>
       </c>
       <c r="E54">
-        <v>-0.003455626581353877</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.004101815722713753</v>
+      </c>
+      <c r="F54">
+        <v>0.007267078019818415</v>
+      </c>
+      <c r="G54">
+        <v>0.07179037841176573</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.004281507430620337</v>
+        <v>-0.07415152996059285</v>
       </c>
       <c r="C55">
-        <v>-0.04537308701627417</v>
+        <v>0.06667744321168106</v>
       </c>
       <c r="D55">
-        <v>0.1028843713885666</v>
+        <v>0.005674551902614412</v>
       </c>
       <c r="E55">
-        <v>0.0007032060182714434</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02605479436518194</v>
+      </c>
+      <c r="F55">
+        <v>0.05967423018504583</v>
+      </c>
+      <c r="G55">
+        <v>0.03390637864293501</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.007690999266931174</v>
+        <v>-0.1426672068956615</v>
       </c>
       <c r="C56">
-        <v>-0.0939320964744788</v>
+        <v>0.1046211317074512</v>
       </c>
       <c r="D56">
-        <v>0.1551260193302658</v>
+        <v>0.0130175096278968</v>
       </c>
       <c r="E56">
-        <v>-0.000550541627746732</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03529312434342798</v>
+      </c>
+      <c r="F56">
+        <v>0.0796972807229481</v>
+      </c>
+      <c r="G56">
+        <v>0.009975827094760626</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02425537155270407</v>
+        <v>-0.007875213535403495</v>
       </c>
       <c r="C57">
-        <v>-0.01561466141884361</v>
+        <v>0.008955686771264315</v>
       </c>
       <c r="D57">
-        <v>0.04101799046131702</v>
+        <v>-0.02348374489688687</v>
       </c>
       <c r="E57">
-        <v>0.002972182088130933</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02431767457559509</v>
+      </c>
+      <c r="F57">
+        <v>-0.009481772053162335</v>
+      </c>
+      <c r="G57">
+        <v>0.02751816433693683</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01746152451752905</v>
+        <v>-0.07222816608680512</v>
       </c>
       <c r="C58">
-        <v>-0.08805269704903401</v>
+        <v>0.03641585316495172</v>
       </c>
       <c r="D58">
-        <v>0.1247182847647853</v>
+        <v>-0.02330514248055052</v>
       </c>
       <c r="E58">
-        <v>0.395688943352671</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9382284987248733</v>
+      </c>
+      <c r="F58">
+        <v>0.2381959695351798</v>
+      </c>
+      <c r="G58">
+        <v>-0.08370698458976911</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.0415451194181907</v>
+        <v>-0.1552570853274115</v>
       </c>
       <c r="C59">
-        <v>-0.252544735297714</v>
+        <v>-0.2104209357035688</v>
       </c>
       <c r="D59">
-        <v>-0.1631863877827475</v>
+        <v>0.01317835031465177</v>
       </c>
       <c r="E59">
-        <v>-0.005383666096506782</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.0113774127327513</v>
+      </c>
+      <c r="F59">
+        <v>-0.003760247488256638</v>
+      </c>
+      <c r="G59">
+        <v>0.03675192954135466</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.0422000857491316</v>
+        <v>-0.2883817538362305</v>
       </c>
       <c r="C60">
-        <v>-0.1625125306023236</v>
+        <v>0.09424676245439743</v>
       </c>
       <c r="D60">
-        <v>0.07735835098498159</v>
+        <v>-0.013175415521804</v>
       </c>
       <c r="E60">
-        <v>0.005347437998535014</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.0009015654540265537</v>
+      </c>
+      <c r="F60">
+        <v>-0.3534662261315686</v>
+      </c>
+      <c r="G60">
+        <v>-0.1289047275587584</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003257817838445739</v>
+        <v>-0.03824854601732235</v>
       </c>
       <c r="C61">
-        <v>-0.007314883657066827</v>
+        <v>0.06499154489063388</v>
       </c>
       <c r="D61">
-        <v>0.06262517803187538</v>
+        <v>-0.005136124497807574</v>
       </c>
       <c r="E61">
-        <v>-0.0008265397360383617</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01102893673592337</v>
+      </c>
+      <c r="F61">
+        <v>-0.01467857304722625</v>
+      </c>
+      <c r="G61">
+        <v>0.06066379284166711</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007712906232410941</v>
+        <v>-0.0145366012246355</v>
       </c>
       <c r="C63">
-        <v>-0.007718314687893043</v>
+        <v>0.02862894058966505</v>
       </c>
       <c r="D63">
-        <v>0.01067674553708268</v>
+        <v>-0.008025391643389775</v>
       </c>
       <c r="E63">
-        <v>-0.009319378002251513</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.002733298916584391</v>
+      </c>
+      <c r="F63">
+        <v>0.01756033605474872</v>
+      </c>
+      <c r="G63">
+        <v>0.06878029020411366</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.009149864287222495</v>
+        <v>-0.0494260587743553</v>
       </c>
       <c r="C64">
-        <v>-0.03021372295016595</v>
+        <v>0.04378999214210889</v>
       </c>
       <c r="D64">
-        <v>0.05962348512924114</v>
+        <v>-0.005855728571250388</v>
       </c>
       <c r="E64">
-        <v>0.01521677494338702</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.003979646552718145</v>
+      </c>
+      <c r="F64">
+        <v>-0.002891113605565948</v>
+      </c>
+      <c r="G64">
+        <v>0.05143172651472942</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01764218061046806</v>
+        <v>-0.08016547369020832</v>
       </c>
       <c r="C65">
-        <v>-0.0102677903817303</v>
+        <v>0.05739823161643848</v>
       </c>
       <c r="D65">
-        <v>0.1024441251303703</v>
+        <v>-0.01584375806567875</v>
       </c>
       <c r="E65">
-        <v>-0.0137170479413782</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.02490480563378231</v>
+      </c>
+      <c r="F65">
+        <v>-0.03005762273365153</v>
+      </c>
+      <c r="G65">
+        <v>0.02296273333022536</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.004623195255678262</v>
+        <v>-0.05239226541527777</v>
       </c>
       <c r="C66">
-        <v>0.01379729440835468</v>
+        <v>0.1113938195836262</v>
       </c>
       <c r="D66">
-        <v>0.1139950851247664</v>
+        <v>-0.01193348699278663</v>
       </c>
       <c r="E66">
-        <v>0.009622812740372542</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02924135052245683</v>
+      </c>
+      <c r="F66">
+        <v>-0.03503336431497217</v>
+      </c>
+      <c r="G66">
+        <v>0.07332188796786593</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.003927369193466815</v>
+        <v>-0.05478357720164993</v>
       </c>
       <c r="C67">
-        <v>-0.05816325939126725</v>
+        <v>0.0314724155220143</v>
       </c>
       <c r="D67">
-        <v>0.03726113756676434</v>
+        <v>0.005826302357337684</v>
       </c>
       <c r="E67">
-        <v>-0.006907214453820885</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003787618153484559</v>
+      </c>
+      <c r="F67">
+        <v>0.0155102729793635</v>
+      </c>
+      <c r="G67">
+        <v>0.0615143506224241</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05805419068603386</v>
+        <v>-0.1421798080645978</v>
       </c>
       <c r="C68">
-        <v>-0.2296396667672663</v>
+        <v>-0.2733094595452374</v>
       </c>
       <c r="D68">
-        <v>-0.1608627866871323</v>
+        <v>-0.004449882765902738</v>
       </c>
       <c r="E68">
-        <v>0.01489263854383602</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.008504357213686682</v>
+      </c>
+      <c r="F68">
+        <v>0.03023515091126645</v>
+      </c>
+      <c r="G68">
+        <v>0.02243840590038027</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0004603032474421476</v>
+        <v>-0.08234344503300786</v>
       </c>
       <c r="C69">
-        <v>-0.04292302778776031</v>
+        <v>0.0659967172327401</v>
       </c>
       <c r="D69">
-        <v>0.06372428906903141</v>
+        <v>0.009515360955843009</v>
       </c>
       <c r="E69">
-        <v>-0.009739328967630797</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02703257490243266</v>
+      </c>
+      <c r="F69">
+        <v>0.03989331836979623</v>
+      </c>
+      <c r="G69">
+        <v>0.06666571527341338</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.04365513289146737</v>
+        <v>-0.1318265076754005</v>
       </c>
       <c r="C71">
-        <v>-0.20370617253573</v>
+        <v>-0.2332681048705467</v>
       </c>
       <c r="D71">
-        <v>-0.1347294933631379</v>
+        <v>0.004480390136488583</v>
       </c>
       <c r="E71">
-        <v>0.005716289060575043</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02453166342079662</v>
+      </c>
+      <c r="F71">
+        <v>0.0147885294563684</v>
+      </c>
+      <c r="G71">
+        <v>0.04541303213367235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0004991617189039121</v>
+        <v>-0.0883471974353538</v>
       </c>
       <c r="C72">
-        <v>-0.04703651394095495</v>
+        <v>0.07042049125663977</v>
       </c>
       <c r="D72">
-        <v>0.1258637378917466</v>
+        <v>0.008204292295505341</v>
       </c>
       <c r="E72">
-        <v>-0.005442725592275771</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.002664213374830576</v>
+      </c>
+      <c r="F72">
+        <v>-0.0434662967573379</v>
+      </c>
+      <c r="G72">
+        <v>0.05240689169529252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.05624141767021665</v>
+        <v>-0.3830062903132912</v>
       </c>
       <c r="C73">
-        <v>-0.188501782952113</v>
+        <v>0.1102445313328294</v>
       </c>
       <c r="D73">
-        <v>0.1518877678774783</v>
+        <v>-0.0230842361137566</v>
       </c>
       <c r="E73">
-        <v>0.04422845154288284</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.07034061395676947</v>
+      </c>
+      <c r="F73">
+        <v>-0.5692642007123372</v>
+      </c>
+      <c r="G73">
+        <v>-0.2014114101661403</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.004914584015086083</v>
+        <v>-0.1116085485750304</v>
       </c>
       <c r="C74">
-        <v>-0.08223310111407722</v>
+        <v>0.1093893838850948</v>
       </c>
       <c r="D74">
-        <v>0.1612222469944587</v>
+        <v>0.01015851197233703</v>
       </c>
       <c r="E74">
-        <v>0.01044891063441846</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01483922839922161</v>
+      </c>
+      <c r="F74">
+        <v>0.07441788467650655</v>
+      </c>
+      <c r="G74">
+        <v>0.05576691433387009</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01519671921306253</v>
+        <v>-0.252747353455293</v>
       </c>
       <c r="C75">
-        <v>-0.1897273390738666</v>
+        <v>0.1447217650604866</v>
       </c>
       <c r="D75">
-        <v>0.2856640638508761</v>
+        <v>0.03061343562560348</v>
       </c>
       <c r="E75">
-        <v>0.01380869208986031</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05811767692136584</v>
+      </c>
+      <c r="F75">
+        <v>0.1808359189887807</v>
+      </c>
+      <c r="G75">
+        <v>-0.05787138810056616</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.002304273695478774</v>
+        <v>-0.1270093740495365</v>
       </c>
       <c r="C76">
-        <v>-0.1210302366688716</v>
+        <v>0.110641025160623</v>
       </c>
       <c r="D76">
-        <v>0.224435753511268</v>
+        <v>0.02048525163324639</v>
       </c>
       <c r="E76">
-        <v>-0.02950757305579078</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04417254787474947</v>
+      </c>
+      <c r="F76">
+        <v>0.1153677000469216</v>
+      </c>
+      <c r="G76">
+        <v>0.03005555121248012</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01323570596075116</v>
+        <v>-0.06674808725387044</v>
       </c>
       <c r="C77">
-        <v>-0.01998778331580713</v>
+        <v>0.05681740526109837</v>
       </c>
       <c r="D77">
-        <v>0.04213881069790975</v>
+        <v>-0.0124046994255587</v>
       </c>
       <c r="E77">
-        <v>0.01789505779604778</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.051186170386974</v>
+      </c>
+      <c r="F77">
+        <v>-0.01368988733623142</v>
+      </c>
+      <c r="G77">
+        <v>0.06509339660443246</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.005060518591418406</v>
+        <v>-0.04540434387110849</v>
       </c>
       <c r="C78">
-        <v>-0.01541592434623121</v>
+        <v>0.04887413505046188</v>
       </c>
       <c r="D78">
-        <v>0.06048878263864728</v>
+        <v>-0.005288392953062294</v>
       </c>
       <c r="E78">
-        <v>0.007545303810635284</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02190783178261723</v>
+      </c>
+      <c r="F78">
+        <v>-0.03667197583614874</v>
+      </c>
+      <c r="G78">
+        <v>0.06778924853649171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01663071260838552</v>
+        <v>-0.05838261937477288</v>
       </c>
       <c r="C80">
-        <v>-0.09145686529206215</v>
+        <v>0.06648943290200254</v>
       </c>
       <c r="D80">
-        <v>0.218343509989161</v>
+        <v>-0.009830933350775147</v>
       </c>
       <c r="E80">
-        <v>-0.7884932470230378</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03017837880946242</v>
+      </c>
+      <c r="F80">
+        <v>-0.006972919500872152</v>
+      </c>
+      <c r="G80">
+        <v>0.6821520361550836</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.00940175739872834</v>
+        <v>-0.1440541080270469</v>
       </c>
       <c r="C81">
-        <v>-0.1125738340276898</v>
+        <v>0.0892163476316078</v>
       </c>
       <c r="D81">
-        <v>0.1639448174358238</v>
+        <v>0.01577371106713468</v>
       </c>
       <c r="E81">
-        <v>-0.01247212011068362</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03606533173942883</v>
+      </c>
+      <c r="F81">
+        <v>0.1286458961379882</v>
+      </c>
+      <c r="G81">
+        <v>0.01738567752321197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1222567177614165</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.06230435187935047</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.007063408241924348</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08483254772770747</v>
+      </c>
+      <c r="F82">
+        <v>0.0243493167258046</v>
+      </c>
+      <c r="G82">
+        <v>0.03058323455717486</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.007375425229507604</v>
+        <v>-0.03435666555390016</v>
       </c>
       <c r="C83">
-        <v>-0.02193606940703867</v>
+        <v>0.02447479399613464</v>
       </c>
       <c r="D83">
-        <v>0.02034775608235753</v>
+        <v>-0.005735944392746248</v>
       </c>
       <c r="E83">
-        <v>0.000876485842011928</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02968442034869442</v>
+      </c>
+      <c r="F83">
+        <v>-0.03523086668116897</v>
+      </c>
+      <c r="G83">
+        <v>0.04870735707102904</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.02035192684933302</v>
+        <v>-0.2176937297958293</v>
       </c>
       <c r="C85">
-        <v>-0.1464636287668836</v>
+        <v>0.1415295976466615</v>
       </c>
       <c r="D85">
-        <v>0.2596182631697825</v>
+        <v>0.01780754340939507</v>
       </c>
       <c r="E85">
-        <v>0.008376984831830695</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09697536483728611</v>
+      </c>
+      <c r="F85">
+        <v>0.1422057533835975</v>
+      </c>
+      <c r="G85">
+        <v>-0.1015677730950737</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01013945008283916</v>
+        <v>-0.01606890854601028</v>
       </c>
       <c r="C86">
-        <v>-0.03480470756092136</v>
+        <v>0.02374691141278742</v>
       </c>
       <c r="D86">
-        <v>0.01480817817454353</v>
+        <v>-0.01137579778479189</v>
       </c>
       <c r="E86">
-        <v>0.04136203941480165</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04426465500648524</v>
+      </c>
+      <c r="F86">
+        <v>-0.04163566603974433</v>
+      </c>
+      <c r="G86">
+        <v>0.1341470693866472</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.008016303952397575</v>
+        <v>-0.02292447351617355</v>
       </c>
       <c r="C87">
-        <v>-0.01105799461478245</v>
+        <v>0.02743085397781598</v>
       </c>
       <c r="D87">
-        <v>0.04276546287764586</v>
+        <v>-0.01149276244123095</v>
       </c>
       <c r="E87">
-        <v>0.01201091277698754</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08472940294598566</v>
+      </c>
+      <c r="F87">
+        <v>-0.02106591075548013</v>
+      </c>
+      <c r="G87">
+        <v>0.09256420934156935</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.0283401779628231</v>
+        <v>-0.09069218283598945</v>
       </c>
       <c r="C88">
-        <v>-0.03492909734822428</v>
+        <v>0.06615161938087992</v>
       </c>
       <c r="D88">
-        <v>0.03705982034079751</v>
+        <v>-0.0229706993912113</v>
       </c>
       <c r="E88">
-        <v>-0.003800431007082466</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01036078913793619</v>
+      </c>
+      <c r="F88">
+        <v>0.02400790474115314</v>
+      </c>
+      <c r="G88">
+        <v>0.06459354397471748</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.08133540115044924</v>
+        <v>-0.2164535098876757</v>
       </c>
       <c r="C89">
-        <v>-0.3697823903087162</v>
+        <v>-0.3739290522610066</v>
       </c>
       <c r="D89">
-        <v>-0.242567195859559</v>
+        <v>0.002552843752774315</v>
       </c>
       <c r="E89">
-        <v>-0.01948226825636171</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01924969370059819</v>
+      </c>
+      <c r="F89">
+        <v>0.02270780648619434</v>
+      </c>
+      <c r="G89">
+        <v>0.04725712919702676</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06248743083922785</v>
+        <v>-0.1971292080930914</v>
       </c>
       <c r="C90">
-        <v>-0.2871908960081662</v>
+        <v>-0.3278362678078873</v>
       </c>
       <c r="D90">
-        <v>-0.21649507997954</v>
+        <v>0.007387806592330114</v>
       </c>
       <c r="E90">
-        <v>0.01243120258779115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01637644903172207</v>
+      </c>
+      <c r="F90">
+        <v>0.05076709038503235</v>
+      </c>
+      <c r="G90">
+        <v>0.01428440898918671</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.01060070207842531</v>
+        <v>-0.1948359574930473</v>
       </c>
       <c r="C91">
-        <v>-0.162327097911923</v>
+        <v>0.1379656925405691</v>
       </c>
       <c r="D91">
-        <v>0.2291308664008853</v>
+        <v>0.02326815061250418</v>
       </c>
       <c r="E91">
-        <v>-0.0141637188439986</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06917109290625337</v>
+      </c>
+      <c r="F91">
+        <v>0.1525422004100896</v>
+      </c>
+      <c r="G91">
+        <v>0.008951143546322997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.02949902855312003</v>
+        <v>-0.1954607741581359</v>
       </c>
       <c r="C92">
-        <v>-0.3006160722231422</v>
+        <v>-0.2658213532417409</v>
       </c>
       <c r="D92">
-        <v>-0.1076273991845771</v>
+        <v>0.04202311514151542</v>
       </c>
       <c r="E92">
-        <v>0.01092810076560717</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.01366610933615355</v>
+      </c>
+      <c r="F92">
+        <v>0.06542734542200915</v>
+      </c>
+      <c r="G92">
+        <v>0.1167159851971987</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.0605971781241631</v>
+        <v>-0.2227734857388158</v>
       </c>
       <c r="C93">
-        <v>-0.3127616736253434</v>
+        <v>-0.3282248784543704</v>
       </c>
       <c r="D93">
-        <v>-0.1988294553266172</v>
+        <v>0.0137440998587634</v>
       </c>
       <c r="E93">
-        <v>0.03641423459750396</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.002748355722963373</v>
+      </c>
+      <c r="F93">
+        <v>0.03493520708076728</v>
+      </c>
+      <c r="G93">
+        <v>0.01622547939039773</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.035230376733316</v>
+        <v>-0.3159304339805946</v>
       </c>
       <c r="C94">
-        <v>-0.1924865457103485</v>
+        <v>0.1706486487481559</v>
       </c>
       <c r="D94">
-        <v>0.250559934363937</v>
+        <v>0.01714910193490066</v>
       </c>
       <c r="E94">
-        <v>0.01293720239642986</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1635859012114829</v>
+      </c>
+      <c r="F94">
+        <v>0.4768291627308942</v>
+      </c>
+      <c r="G94">
+        <v>-0.2793918727479414</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.00410214906375867</v>
+        <v>-0.099886290784533</v>
       </c>
       <c r="C95">
-        <v>-0.03986291747829841</v>
+        <v>0.08381908646200271</v>
       </c>
       <c r="D95">
-        <v>0.08452113271850349</v>
+        <v>0.009009800228477314</v>
       </c>
       <c r="E95">
-        <v>0.1277272528478574</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06207844200329216</v>
+      </c>
+      <c r="F95">
+        <v>-0.1892334065479196</v>
+      </c>
+      <c r="G95">
+        <v>-0.07365518087531259</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.01677628191198693</v>
+        <v>-0.2009265716151169</v>
       </c>
       <c r="C98">
-        <v>-0.1697226654984286</v>
+        <v>0.04306820413975885</v>
       </c>
       <c r="D98">
-        <v>0.1115076014848906</v>
+        <v>0.01249884388749411</v>
       </c>
       <c r="E98">
-        <v>0.04870966599011851</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06571548122500466</v>
+      </c>
+      <c r="F98">
+        <v>-0.2419147322857806</v>
+      </c>
+      <c r="G98">
+        <v>-0.02503817104635517</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008112079894164959</v>
+        <v>-0.01088722053563539</v>
       </c>
       <c r="C101">
-        <v>-0.01688937189105675</v>
+        <v>0.02057755079628818</v>
       </c>
       <c r="D101">
-        <v>0.01147693414824506</v>
+        <v>-0.00756015902669896</v>
       </c>
       <c r="E101">
-        <v>-0.004800699444070486</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.004993106638979507</v>
+      </c>
+      <c r="F101">
+        <v>0.0163173700646844</v>
+      </c>
+      <c r="G101">
+        <v>0.06935325657580554</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01979665913590859</v>
+        <v>-0.1206346575042499</v>
       </c>
       <c r="C102">
-        <v>-0.08552531006728124</v>
+        <v>0.08264774131735377</v>
       </c>
       <c r="D102">
-        <v>0.1292546854589374</v>
+        <v>-0.001082090565476298</v>
       </c>
       <c r="E102">
-        <v>0.0008293653341486227</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03258573579957345</v>
+      </c>
+      <c r="F102">
+        <v>0.04292918466038867</v>
+      </c>
+      <c r="G102">
+        <v>-0.003383819878914846</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.002196546722568842</v>
+        <v>-0.003657611542786693</v>
       </c>
       <c r="C103">
-        <v>-0.01253380063757803</v>
+        <v>0.003388229817956745</v>
       </c>
       <c r="D103">
-        <v>0.02235513805406062</v>
+        <v>-0.000152384032058856</v>
       </c>
       <c r="E103">
-        <v>-0.01419939749172463</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.00187775776320507</v>
+      </c>
+      <c r="F103">
+        <v>0.005393355405745751</v>
+      </c>
+      <c r="G103">
+        <v>0.0131204640988877</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9745421287730943</v>
+        <v>-0.02259209741613732</v>
       </c>
       <c r="C104">
-        <v>0.1784692173633759</v>
+        <v>-0.03441404036248404</v>
       </c>
       <c r="D104">
-        <v>-0.01163413421044676</v>
+        <v>-0.987342138053575</v>
       </c>
       <c r="E104">
-        <v>-0.04256566133161115</v>
+        <v>0.0483016144733739</v>
+      </c>
+      <c r="F104">
+        <v>0.04088748137492712</v>
+      </c>
+      <c r="G104">
+        <v>-0.01835321179269677</v>
       </c>
     </row>
   </sheetData>
